--- a/conf-core/src/test/resources/dataloader/slots-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3240" yWindow="900" windowWidth="18060" windowHeight="8670"/>
   </bookViews>
@@ -604,24 +609,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,17 +638,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,6 +649,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,7 +700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,7 +735,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,214 +946,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1180,15 +1160,15 @@
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -1200,15 +1180,15 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -1220,15 +1200,15 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -1240,15 +1220,15 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
@@ -1260,15 +1240,15 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
@@ -1280,15 +1260,15 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
@@ -1300,2351 +1280,2329 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="1" t="b">
+      <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="1" t="b">
+      <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="1" t="b">
+      <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="1" t="b">
+      <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="1" t="b">
+      <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="1" t="b">
+      <c r="E30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>46</v>
       </c>
       <c r="D59" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="D60" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
       <c r="D61" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>46</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>46</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>46</v>
       </c>
       <c r="D64" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>46</v>
       </c>
       <c r="D65" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>46</v>
       </c>
       <c r="D66" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>46</v>
       </c>
       <c r="D67" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="D68" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>46</v>
       </c>
       <c r="D69" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>46</v>
       </c>
       <c r="D70" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>46</v>
       </c>
       <c r="D71" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73"/>
-      <c r="D73"/>
-    </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" t="s">
         <v>103</v>
       </c>
-      <c r="E82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="C87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" t="s">
         <v>108</v>
       </c>
-      <c r="E87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" t="s">
         <v>113</v>
       </c>
-      <c r="E92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" t="s">
         <v>115</v>
       </c>
-      <c r="E94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1">
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
         <v>117</v>
       </c>
-      <c r="E96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1">
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
         <v>119</v>
       </c>
-      <c r="E98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
         <v>122</v>
       </c>
-      <c r="E101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
         <v>123</v>
       </c>
-      <c r="E102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1">
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
         <v>126</v>
       </c>
-      <c r="E105" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
         <v>127</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="1">
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" t="s">
         <v>128</v>
       </c>
-      <c r="E107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="1">
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
         <v>129</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" t="s">
         <v>129</v>
       </c>
-      <c r="E108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
         <v>130</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" t="s">
         <v>130</v>
       </c>
-      <c r="E109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1">
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1">
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110">
         <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="C111" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1">
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
         <v>133</v>
       </c>
-      <c r="E112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1">
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112">
         <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1">
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="C114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" t="s">
         <v>135</v>
       </c>
-      <c r="E114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="1">
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="C115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" t="s">
         <v>136</v>
       </c>
-      <c r="E115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1">
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" t="s">
         <v>137</v>
       </c>
-      <c r="E116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1">
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" t="s">
         <v>138</v>
       </c>
-      <c r="E117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" t="s">
         <v>139</v>
       </c>
-      <c r="E118" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" s="1">
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
         <v>140</v>
       </c>
-      <c r="E119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="1">
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="3" t="s">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
         <v>141</v>
       </c>
-      <c r="E120" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" s="1">
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120">
         <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" s="3" t="s">
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="1">
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121">
         <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>14</v>
       </c>
       <c r="B122" t="s">
         <v>143</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>46</v>
       </c>
       <c r="D122" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="1">
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>144</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>46</v>
       </c>
       <c r="D123" t="s">
         <v>144</v>
       </c>
-      <c r="E123" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1">
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>14</v>
       </c>
       <c r="B124" t="s">
         <v>145</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>46</v>
       </c>
       <c r="D124" t="s">
         <v>145</v>
       </c>
-      <c r="E124" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="1">
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>14</v>
       </c>
       <c r="B125" t="s">
         <v>146</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>46</v>
       </c>
       <c r="D125" t="s">
         <v>146</v>
       </c>
-      <c r="E125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="1">
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126"/>
-      <c r="D126"/>
-    </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="2" t="s">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1">
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="2" t="s">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
         <v>148</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
         <v>148</v>
       </c>
-      <c r="E128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1">
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
         <v>149</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
         <v>149</v>
       </c>
-      <c r="E129" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1">
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s">
         <v>150</v>
       </c>
-      <c r="E130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="1">
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130">
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="2" t="s">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
         <v>151</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1">
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="2" t="s">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
         <v>152</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" s="1">
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132">
         <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="2" t="s">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
         <v>153</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" s="1">
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133">
         <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
         <v>154</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" t="s">
         <v>154</v>
       </c>
-      <c r="E134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" s="1">
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
         <v>155</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" s="1">
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
         <v>156</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" t="s">
         <v>156</v>
       </c>
-      <c r="E136" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" s="1">
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="2" t="s">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
         <v>157</v>
       </c>
-      <c r="E137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F137" s="1">
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="2" t="s">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
         <v>158</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
         <v>158</v>
       </c>
-      <c r="E138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1">
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138">
         <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>14</v>
       </c>
       <c r="B139" t="s">
         <v>159</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>46</v>
       </c>
       <c r="D139" t="s">
         <v>159</v>
       </c>
-      <c r="E139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F139" s="1">
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>14</v>
       </c>
       <c r="B140" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>46</v>
       </c>
       <c r="D140" t="s">
         <v>160</v>
       </c>
-      <c r="E140" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" s="1">
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>14</v>
       </c>
       <c r="B141" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>46</v>
       </c>
       <c r="D141" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1">
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B142"/>
-      <c r="D142"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B145"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="F145"/>
-    </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>14</v>
       </c>
       <c r="B146" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" t="s">
         <v>31</v>
       </c>
       <c r="D146" t="s">
         <v>163</v>
       </c>
-      <c r="E146" s="1" t="b">
+      <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146">
@@ -3652,527 +3610,527 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
         <v>164</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>16</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F148" s="1">
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
         <v>166</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" t="s">
         <v>167</v>
       </c>
-      <c r="E149" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F149" s="1">
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
         <v>168</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>16</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" t="s">
         <v>169</v>
       </c>
-      <c r="E150" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F150" s="1">
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150">
         <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>16</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" t="s">
         <v>171</v>
       </c>
-      <c r="E151" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" s="1">
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
         <v>172</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>16</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>173</v>
       </c>
-      <c r="E152" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F152" s="1">
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
         <v>174</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>175</v>
       </c>
-      <c r="E153" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F153" s="1">
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
         <v>176</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" t="s">
         <v>176</v>
       </c>
-      <c r="E154" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F154" s="1">
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
         <v>177</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" t="s">
         <v>177</v>
       </c>
-      <c r="E155" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F155" s="1">
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155">
         <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
         <v>178</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" t="s">
         <v>178</v>
       </c>
-      <c r="E156" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F156" s="1">
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
         <v>179</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" t="s">
         <v>179</v>
       </c>
-      <c r="E157" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1">
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
         <v>180</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C158" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" t="s">
         <v>180</v>
       </c>
-      <c r="E158" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F158" s="1">
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158">
         <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
         <v>181</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="C159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" t="s">
         <v>181</v>
       </c>
-      <c r="E159" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F159" s="1">
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159">
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
         <v>182</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" t="s">
+        <v>46</v>
+      </c>
+      <c r="D160" t="s">
         <v>182</v>
       </c>
-      <c r="E160" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F160" s="1">
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160">
         <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
         <v>183</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" t="s">
+        <v>46</v>
+      </c>
+      <c r="D161" t="s">
         <v>183</v>
       </c>
-      <c r="E161" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1">
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
         <v>184</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="C162" t="s">
+        <v>46</v>
+      </c>
+      <c r="D162" t="s">
         <v>184</v>
       </c>
-      <c r="E162" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F162" s="1">
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
         <v>185</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="C163" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" t="s">
         <v>185</v>
       </c>
-      <c r="E163" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F163" s="1">
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163">
         <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
         <v>186</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D164" t="s">
         <v>186</v>
       </c>
-      <c r="E164" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F164" s="1">
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
         <v>187</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="C165" t="s">
+        <v>46</v>
+      </c>
+      <c r="D165" t="s">
         <v>187</v>
       </c>
-      <c r="E165" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1">
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
         <v>188</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="C166" t="s">
+        <v>46</v>
+      </c>
+      <c r="D166" t="s">
         <v>188</v>
       </c>
-      <c r="E166" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F166" s="1">
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
         <v>189</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="C167" t="s">
+        <v>46</v>
+      </c>
+      <c r="D167" t="s">
         <v>189</v>
       </c>
-      <c r="E167" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F167" s="1">
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
         <v>188</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" t="s">
         <v>188</v>
       </c>
-      <c r="E168" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F168" s="1">
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168">
         <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" t="s">
+        <v>46</v>
+      </c>
+      <c r="D169" t="s">
         <v>189</v>
       </c>
-      <c r="E169" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F169" s="1">
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169">
         <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
         <v>190</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="C170" t="s">
+        <v>46</v>
+      </c>
+      <c r="D170" t="s">
         <v>190</v>
       </c>
-      <c r="E170" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F170" s="1">
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170">
         <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
         <v>191</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="C171" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" t="s">
         <v>191</v>
       </c>
-      <c r="E171" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171">
         <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
         <v>192</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="C172" t="s">
+        <v>46</v>
+      </c>
+      <c r="D172" t="s">
         <v>192</v>
       </c>
-      <c r="E172" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F172" s="1">
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172">
         <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" t="s">
         <v>193</v>
       </c>
-      <c r="E173" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F173" s="1">
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173">
         <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>22</v>
       </c>
     </row>
